--- a/docs/Рост кода.xlsx
+++ b/docs/Рост кода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика проекта" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Таблиц</t>
   </si>
@@ -73,10 +73,13 @@
     <t>Фев.</t>
   </si>
   <si>
-    <t>5,17 мб</t>
+    <t>Папок</t>
   </si>
   <si>
-    <t>Папок</t>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>22,5 мб</t>
   </si>
 </sst>
 </file>
@@ -181,10 +184,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -345,6 +348,9 @@
                 <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -375,6 +381,9 @@
                 <c:pt idx="13">
                   <c:v>5059</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>6344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -390,11 +399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310825328"/>
-        <c:axId val="311182568"/>
+        <c:axId val="144306880"/>
+        <c:axId val="144307264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310825328"/>
+        <c:axId val="144306880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +446,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311182568"/>
+        <c:crossAx val="144307264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -445,7 +454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311182568"/>
+        <c:axId val="144307264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +505,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310825328"/>
+        <c:crossAx val="144306880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -698,11 +707,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="310619152"/>
-        <c:axId val="310619544"/>
+        <c:axId val="143682208"/>
+        <c:axId val="143682600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310619152"/>
+        <c:axId val="143682208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +754,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310619544"/>
+        <c:crossAx val="143682600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310619544"/>
+        <c:axId val="143682600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +813,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310619152"/>
+        <c:crossAx val="143682208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2306,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O18"/>
+  <dimension ref="A2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,21 +2334,21 @@
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>18</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -2368,7 +2377,7 @@
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>9</v>
       </c>
       <c r="L4" s="2">
@@ -2391,7 +2400,7 @@
       <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>883</v>
       </c>
     </row>
@@ -2403,9 +2412,9 @@
         <v>1820</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="12">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11">
         <v>279</v>
       </c>
     </row>
@@ -2451,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2472,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="G12">
-        <f>AVERAGE(D7:D17)</f>
-        <v>539.83333333333337</v>
+        <f>AVERAGE(D7:D19)</f>
+        <v>646.28571428571433</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="9">
-        <f t="shared" ref="D13:D17" si="1">C14-C12</f>
+        <f t="shared" ref="D13:D19" si="1">C14-C12</f>
         <v>193</v>
       </c>
     </row>
@@ -2521,6 +2530,81 @@
       <c r="C18" s="7">
         <v>5059</v>
       </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6344</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Рост кода.xlsx
+++ b/docs/Рост кода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика проекта" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Таблиц</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>22,5 мб</t>
+  </si>
+  <si>
+    <t>Апрель</t>
   </si>
 </sst>
 </file>
@@ -351,6 +354,9 @@
                 <c:pt idx="15">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -384,6 +390,9 @@
                 <c:pt idx="15">
                   <c:v>6344</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -399,11 +408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144306880"/>
-        <c:axId val="144307264"/>
+        <c:axId val="217164088"/>
+        <c:axId val="217164480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144306880"/>
+        <c:axId val="217164088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +455,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144307264"/>
+        <c:crossAx val="217164480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -454,7 +463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144307264"/>
+        <c:axId val="217164480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144306880"/>
+        <c:crossAx val="217164088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -707,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="143682208"/>
-        <c:axId val="143682600"/>
+        <c:axId val="217165264"/>
+        <c:axId val="217165656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143682208"/>
+        <c:axId val="217165264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +763,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143682600"/>
+        <c:crossAx val="217165656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143682600"/>
+        <c:axId val="217165656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +822,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143682208"/>
+        <c:crossAx val="217165264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2317,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2496,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="9">
-        <f t="shared" ref="D13:D19" si="1">C14-C12</f>
+        <f t="shared" ref="D13:D21" si="1">C14-C12</f>
         <v>193</v>
       </c>
     </row>
@@ -2552,13 +2561,23 @@
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="7">
+        <f>C22-C20</f>
+        <v>-6344</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="7">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">

--- a/docs/Рост кода.xlsx
+++ b/docs/Рост кода.xlsx
@@ -7,17 +7,16 @@
     <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Статистика проекта" sheetId="1" r:id="rId1"/>
+    <sheet name="Общая" sheetId="1" r:id="rId1"/>
+    <sheet name="Метрики" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Таблиц</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Классов</t>
   </si>
@@ -25,15 +24,6 @@
     <t>Файлов</t>
   </si>
   <si>
-    <t>Символов</t>
-  </si>
-  <si>
-    <t>Строчек кода</t>
-  </si>
-  <si>
-    <t>Констант</t>
-  </si>
-  <si>
     <t>Документы</t>
   </si>
   <si>
@@ -55,9 +45,6 @@
     <t>Размер проекта</t>
   </si>
   <si>
-    <t>Число</t>
-  </si>
-  <si>
     <t>Янв.</t>
   </si>
   <si>
@@ -67,9 +54,6 @@
     <t>Кол-во кода в сред.</t>
   </si>
   <si>
-    <t>Итоговый</t>
-  </si>
-  <si>
     <t>Фев.</t>
   </si>
   <si>
@@ -83,13 +67,49 @@
   </si>
   <si>
     <t>Апрель</t>
+  </si>
+  <si>
+    <t>Руководство оператора</t>
+  </si>
+  <si>
+    <t>База данных</t>
+  </si>
+  <si>
+    <t>Таблицы</t>
+  </si>
+  <si>
+    <t>Представления</t>
+  </si>
+  <si>
+    <t>Хранимые процедуры</t>
+  </si>
+  <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Триггеры</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Общее</t>
+  </si>
+  <si>
+    <t>Бизнес логика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +135,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -130,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,11 +192,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,7 +238,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -291,7 +354,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Статистика проекта'!$C$4</c:f>
+              <c:f>Общая!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,7 +389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Статистика проекта'!$B$5:$B$22</c:f>
+              <c:f>Общая!$B$5:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -362,7 +425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Статистика проекта'!$C$5:$C$22</c:f>
+              <c:f>Общая!$C$5:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -391,7 +454,7 @@
                   <c:v>6344</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,11 +471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217164088"/>
-        <c:axId val="217164480"/>
+        <c:axId val="224020368"/>
+        <c:axId val="127271312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217164088"/>
+        <c:axId val="224020368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +518,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217164480"/>
+        <c:crossAx val="127271312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -463,7 +526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217164480"/>
+        <c:axId val="127271312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +577,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217164088"/>
+        <c:crossAx val="224020368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -608,7 +671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -660,7 +722,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Статистика проекта'!$L$2:$O$3</c:f>
+              <c:f>Общая!$G$23:$J$24</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -674,7 +736,7 @@
                     <c:v>ПЗ</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Итоговый</c:v>
+                    <c:v>Руководство оператора</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -687,7 +749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Статистика проекта'!$L$4:$O$4</c:f>
+              <c:f>Общая!$G$25:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -716,11 +778,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="217165264"/>
-        <c:axId val="217165656"/>
+        <c:axId val="128934496"/>
+        <c:axId val="128934888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217165264"/>
+        <c:axId val="128934496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +825,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217165656"/>
+        <c:crossAx val="128934888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -771,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217165656"/>
+        <c:axId val="128934888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +884,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217165264"/>
+        <c:crossAx val="128934496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1976,16 +2038,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>567939</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158890</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431868</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>263139</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44590</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99853</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180662</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2006,16 +2068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>538529</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>178045</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181032</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>245452</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63745</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>153914</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2324,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,110 +2398,122 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F2" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="O2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="R2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="U2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="11">
+        <v>279</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="U3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
-        <v>18</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="V3" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="P4" s="11">
+        <v>883</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11">
-        <v>9</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="P5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>1820</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="11">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ref="D7" si="0">C8-C6</f>
         <v>1077</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2447,17 +2521,20 @@
         <v>2897</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="F8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" s="9">
         <f>C10-C8</f>
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>4</v>
       </c>
@@ -2465,20 +2542,14 @@
         <v>3320</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>C12-C10</f>
         <v>946</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>5</v>
       </c>
@@ -2486,21 +2557,14 @@
         <v>4266</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <f>AVERAGE(D7:D19)</f>
-        <v>646.28571428571433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D13" s="9">
-        <f t="shared" ref="D13:D21" si="1">C14-C12</f>
+        <f t="shared" ref="D13:D19" si="1">C14-C12</f>
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>8</v>
       </c>
@@ -2508,14 +2572,15 @@
         <v>4459</v>
       </c>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" s="9">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>10</v>
       </c>
@@ -2523,26 +2588,34 @@
         <v>4743</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>2</v>
       </c>
       <c r="C18" s="7">
         <v>5059</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12">
+        <f>AVERAGE(D7:D19)</f>
+        <v>646.28571428571433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2551,7 +2624,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>19</v>
       </c>
@@ -2560,77 +2633,122 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="7">
         <f>C22-C20</f>
-        <v>-6344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:O2"/>
+  <mergeCells count="5">
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>